--- a/doc/卡密信息模板.xlsx
+++ b/doc/卡密信息模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="数据模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <r>
       <rPr>
@@ -34,66 +34,12 @@
       <t>(key)</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>此列值为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>del</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时表示删除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(status)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -140,11 +86,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,6 +169,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,6 +204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,25 +380,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.796875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.8984375" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
